--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3527,28 +3527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2105.230819873417</v>
+        <v>2190.600024169164</v>
       </c>
       <c r="AB2" t="n">
-        <v>2880.469683979706</v>
+        <v>2997.275595520635</v>
       </c>
       <c r="AC2" t="n">
-        <v>2605.561700105276</v>
+        <v>2711.219819386864</v>
       </c>
       <c r="AD2" t="n">
-        <v>2105230.819873417</v>
+        <v>2190600.024169165</v>
       </c>
       <c r="AE2" t="n">
-        <v>2880469.683979706</v>
+        <v>2997275.595520635</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.119371212248886e-06</v>
+        <v>2.071129810195539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.57604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2605561.700105275</v>
+        <v>2711219.819386864</v>
       </c>
     </row>
     <row r="3">
@@ -3633,28 +3633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>730.8208805478764</v>
+        <v>779.4326908019972</v>
       </c>
       <c r="AB3" t="n">
-        <v>999.9413703073612</v>
+        <v>1066.454193698759</v>
       </c>
       <c r="AC3" t="n">
-        <v>904.5083693517536</v>
+        <v>964.6733022300102</v>
       </c>
       <c r="AD3" t="n">
-        <v>730820.8805478765</v>
+        <v>779432.6908019972</v>
       </c>
       <c r="AE3" t="n">
-        <v>999941.3703073612</v>
+        <v>1066454.193698759</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.085563775617109e-06</v>
+        <v>3.858839015581314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.286458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>904508.3693517536</v>
+        <v>964673.3022300103</v>
       </c>
     </row>
     <row r="4">
@@ -3739,28 +3739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>564.3305203724831</v>
+        <v>600.832070867497</v>
       </c>
       <c r="AB4" t="n">
-        <v>772.1419144790839</v>
+        <v>822.0849462011182</v>
       </c>
       <c r="AC4" t="n">
-        <v>698.4497738691826</v>
+        <v>743.6263127391512</v>
       </c>
       <c r="AD4" t="n">
-        <v>564330.5203724831</v>
+        <v>600832.070867497</v>
       </c>
       <c r="AE4" t="n">
-        <v>772141.9144790838</v>
+        <v>822084.9462011182</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.440062934455216e-06</v>
+        <v>4.514755272426768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.228124999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>698449.7738691827</v>
+        <v>743626.3127391512</v>
       </c>
     </row>
     <row r="5">
@@ -3845,28 +3845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>491.0708749520839</v>
+        <v>527.6576767931185</v>
       </c>
       <c r="AB5" t="n">
-        <v>671.90483562744</v>
+        <v>721.9645120021236</v>
       </c>
       <c r="AC5" t="n">
-        <v>607.7791811395161</v>
+        <v>653.0612322601968</v>
       </c>
       <c r="AD5" t="n">
-        <v>491070.8749520839</v>
+        <v>527657.6767931185</v>
       </c>
       <c r="AE5" t="n">
-        <v>671904.83562744</v>
+        <v>721964.5120021235</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.622564353264463e-06</v>
+        <v>4.852430678728686e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.794791666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>607779.1811395162</v>
+        <v>653061.2322601968</v>
       </c>
     </row>
     <row r="6">
@@ -3951,28 +3951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>454.6086943014825</v>
+        <v>491.1954961425171</v>
       </c>
       <c r="AB6" t="n">
-        <v>622.0156714634061</v>
+        <v>672.0753478380897</v>
       </c>
       <c r="AC6" t="n">
-        <v>562.6513687834157</v>
+        <v>607.9334199040966</v>
       </c>
       <c r="AD6" t="n">
-        <v>454608.6943014825</v>
+        <v>491195.4961425171</v>
       </c>
       <c r="AE6" t="n">
-        <v>622015.6714634061</v>
+        <v>672075.3478380897</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.738396588703746e-06</v>
+        <v>5.066750640841974e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.548958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>562651.3687834158</v>
+        <v>607933.4199040966</v>
       </c>
     </row>
     <row r="7">
@@ -4057,28 +4057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>429.6814193855249</v>
+        <v>466.0976290259673</v>
       </c>
       <c r="AB7" t="n">
-        <v>587.9090742096375</v>
+        <v>637.7353388094741</v>
       </c>
       <c r="AC7" t="n">
-        <v>531.7998573026371</v>
+        <v>576.8707731406668</v>
       </c>
       <c r="AD7" t="n">
-        <v>429681.4193855249</v>
+        <v>466097.6290259673</v>
       </c>
       <c r="AE7" t="n">
-        <v>587909.0742096376</v>
+        <v>637735.3388094741</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.818487139404207e-06</v>
+        <v>5.21493912849965e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.391666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>531799.8573026371</v>
+        <v>576870.7731406668</v>
       </c>
     </row>
     <row r="8">
@@ -4163,28 +4163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>409.6793343853454</v>
+        <v>446.0955440257877</v>
       </c>
       <c r="AB8" t="n">
-        <v>560.5413390826805</v>
+        <v>610.3676036825169</v>
       </c>
       <c r="AC8" t="n">
-        <v>507.0440604053392</v>
+        <v>552.1149762433689</v>
       </c>
       <c r="AD8" t="n">
-        <v>409679.3343853455</v>
+        <v>446095.5440257877</v>
       </c>
       <c r="AE8" t="n">
-        <v>560541.3390826804</v>
+        <v>610367.603682517</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.875382066131311e-06</v>
+        <v>5.320209638857562e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.285416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>507044.0604053392</v>
+        <v>552114.9762433689</v>
       </c>
     </row>
     <row r="9">
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>391.3837980796535</v>
+        <v>415.775088815561</v>
       </c>
       <c r="AB9" t="n">
-        <v>535.5085791671363</v>
+        <v>568.881819219807</v>
       </c>
       <c r="AC9" t="n">
-        <v>484.4003919624354</v>
+        <v>514.5885368241157</v>
       </c>
       <c r="AD9" t="n">
-        <v>391383.7980796535</v>
+        <v>415775.088815561</v>
       </c>
       <c r="AE9" t="n">
-        <v>535508.5791671363</v>
+        <v>568881.8192198069</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.926149846903187e-06</v>
+        <v>5.414143325023083e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.192708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>484400.3919624354</v>
+        <v>514588.5368241158</v>
       </c>
     </row>
     <row r="10">
@@ -4375,28 +4375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>377.3637755401278</v>
+        <v>401.7550662760352</v>
       </c>
       <c r="AB10" t="n">
-        <v>516.3257658088156</v>
+        <v>549.6990058614863</v>
       </c>
       <c r="AC10" t="n">
-        <v>467.0483593877852</v>
+        <v>497.2365042494656</v>
       </c>
       <c r="AD10" t="n">
-        <v>377363.7755401278</v>
+        <v>401755.0662760352</v>
       </c>
       <c r="AE10" t="n">
-        <v>516325.7658088157</v>
+        <v>549699.0058614863</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.956056154541794e-06</v>
+        <v>5.469477824057371e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>467048.3593877852</v>
+        <v>497236.5042494655</v>
       </c>
     </row>
     <row r="11">
@@ -4481,28 +4481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>373.5675797817071</v>
+        <v>397.9588705176145</v>
       </c>
       <c r="AB11" t="n">
-        <v>511.1316432958076</v>
+        <v>544.5048833484782</v>
       </c>
       <c r="AC11" t="n">
-        <v>462.3499566374219</v>
+        <v>492.5381014991023</v>
       </c>
       <c r="AD11" t="n">
-        <v>373567.5797817071</v>
+        <v>397958.8705176145</v>
       </c>
       <c r="AE11" t="n">
-        <v>511131.6432958076</v>
+        <v>544504.8833484782</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.96218330049702e-06</v>
+        <v>5.480814648249762e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>462349.9566374219</v>
+        <v>492538.1014991023</v>
       </c>
     </row>
     <row r="12">
@@ -4587,28 +4587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>373.7791211585672</v>
+        <v>398.1704118944747</v>
       </c>
       <c r="AB12" t="n">
-        <v>511.4210835401747</v>
+        <v>544.7943235928453</v>
       </c>
       <c r="AC12" t="n">
-        <v>462.6117731110984</v>
+        <v>492.7999179727789</v>
       </c>
       <c r="AD12" t="n">
-        <v>373779.1211585673</v>
+        <v>398170.4118944748</v>
       </c>
       <c r="AE12" t="n">
-        <v>511421.0835401746</v>
+        <v>544794.3235928454</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.968018677597236e-06</v>
+        <v>5.491611623671086e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.119791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>462611.7731110984</v>
+        <v>492799.9179727788</v>
       </c>
     </row>
   </sheetData>
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1277.437332094323</v>
+        <v>1347.934264036055</v>
       </c>
       <c r="AB2" t="n">
-        <v>1747.846114329099</v>
+        <v>1844.303126716913</v>
       </c>
       <c r="AC2" t="n">
-        <v>1581.034134294957</v>
+        <v>1668.285424798746</v>
       </c>
       <c r="AD2" t="n">
-        <v>1277437.332094323</v>
+        <v>1347934.264036055</v>
       </c>
       <c r="AE2" t="n">
-        <v>1747846.114329099</v>
+        <v>1844303.126716913</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.470972396107541e-06</v>
+        <v>2.803900405679178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1581034.134294957</v>
+        <v>1668285.424798746</v>
       </c>
     </row>
     <row r="3">
@@ -4990,28 +4990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>569.4904741288793</v>
+        <v>616.4599818051765</v>
       </c>
       <c r="AB3" t="n">
-        <v>779.2019908496787</v>
+        <v>843.4677434008224</v>
       </c>
       <c r="AC3" t="n">
-        <v>704.8360464598474</v>
+        <v>762.9683657850601</v>
       </c>
       <c r="AD3" t="n">
-        <v>569490.4741288794</v>
+        <v>616459.9818051766</v>
       </c>
       <c r="AE3" t="n">
-        <v>779201.9908496788</v>
+        <v>843467.7434008224</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.358204028067758e-06</v>
+        <v>4.495100824781249e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>704836.0464598474</v>
+        <v>762968.3657850601</v>
       </c>
     </row>
     <row r="4">
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>453.8492181386065</v>
+        <v>489.1403545367581</v>
       </c>
       <c r="AB4" t="n">
-        <v>620.9765226716355</v>
+        <v>669.2634124266416</v>
       </c>
       <c r="AC4" t="n">
-        <v>561.7113948938772</v>
+        <v>605.3898516617409</v>
       </c>
       <c r="AD4" t="n">
-        <v>453849.2181386065</v>
+        <v>489140.3545367582</v>
       </c>
       <c r="AE4" t="n">
-        <v>620976.5226716355</v>
+        <v>669263.4124266416</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.676031858805676e-06</v>
+        <v>5.100929721299188e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>561711.3948938772</v>
+        <v>605389.8516617409</v>
       </c>
     </row>
     <row r="5">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>406.7173001741199</v>
+        <v>442.0084365722716</v>
       </c>
       <c r="AB5" t="n">
-        <v>556.4885531991549</v>
+        <v>604.7754429541611</v>
       </c>
       <c r="AC5" t="n">
-        <v>503.3780667184166</v>
+        <v>547.0565234862803</v>
       </c>
       <c r="AD5" t="n">
-        <v>406717.3001741199</v>
+        <v>442008.4365722716</v>
       </c>
       <c r="AE5" t="n">
-        <v>556488.5531991549</v>
+        <v>604775.4429541611</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.844000698127282e-06</v>
+        <v>5.421104252080036e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.528125</v>
       </c>
       <c r="AH5" t="n">
-        <v>503378.0667184166</v>
+        <v>547056.5234862803</v>
       </c>
     </row>
     <row r="6">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>376.5124627550692</v>
+        <v>411.6330069526286</v>
       </c>
       <c r="AB6" t="n">
-        <v>515.1609620990291</v>
+        <v>563.2144400791882</v>
       </c>
       <c r="AC6" t="n">
-        <v>465.9947229092484</v>
+        <v>509.4620443944611</v>
       </c>
       <c r="AD6" t="n">
-        <v>376512.4627550692</v>
+        <v>411633.0069526287</v>
       </c>
       <c r="AE6" t="n">
-        <v>515160.9620990291</v>
+        <v>563214.4400791882</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.950094223772465e-06</v>
+        <v>5.623334885628046e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.329166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>465994.7229092484</v>
+        <v>509462.0443944611</v>
       </c>
     </row>
     <row r="7">
@@ -5414,28 +5414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>352.7581644788905</v>
+        <v>376.285678252876</v>
       </c>
       <c r="AB7" t="n">
-        <v>482.6592832318832</v>
+        <v>514.8506655381024</v>
       </c>
       <c r="AC7" t="n">
-        <v>436.5949586567901</v>
+        <v>465.7140406165925</v>
       </c>
       <c r="AD7" t="n">
-        <v>352758.1644788905</v>
+        <v>376285.678252876</v>
       </c>
       <c r="AE7" t="n">
-        <v>482659.2832318832</v>
+        <v>514850.6655381023</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.019515307409427e-06</v>
+        <v>5.755662184962449e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.20625</v>
       </c>
       <c r="AH7" t="n">
-        <v>436594.9586567901</v>
+        <v>465714.0406165925</v>
       </c>
     </row>
     <row r="8">
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>342.2807150919463</v>
+        <v>365.8082288659318</v>
       </c>
       <c r="AB8" t="n">
-        <v>468.3235747482218</v>
+        <v>500.5149570544409</v>
       </c>
       <c r="AC8" t="n">
-        <v>423.6274300705163</v>
+        <v>452.7465120303185</v>
       </c>
       <c r="AD8" t="n">
-        <v>342280.7150919462</v>
+        <v>365808.2288659317</v>
       </c>
       <c r="AE8" t="n">
-        <v>468323.5747482218</v>
+        <v>500514.9570544409</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.050603879646849e-06</v>
+        <v>5.814921801620899e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.153125</v>
       </c>
       <c r="AH8" t="n">
-        <v>423627.4300705162</v>
+        <v>452746.5120303185</v>
       </c>
     </row>
     <row r="9">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>343.3829552051716</v>
+        <v>366.9104689791571</v>
       </c>
       <c r="AB9" t="n">
-        <v>469.8317082985387</v>
+        <v>502.0230906047578</v>
       </c>
       <c r="AC9" t="n">
-        <v>424.9916294714695</v>
+        <v>454.1107114312719</v>
       </c>
       <c r="AD9" t="n">
-        <v>343382.9552051717</v>
+        <v>366910.4689791572</v>
       </c>
       <c r="AE9" t="n">
-        <v>469831.7082985387</v>
+        <v>502023.0906047578</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.049849302650795e-06</v>
+        <v>5.813483461410743e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.154166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>424991.6294714695</v>
+        <v>454110.7114312719</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.2239623246257</v>
+        <v>458.9923914348176</v>
       </c>
       <c r="AB2" t="n">
-        <v>570.8642318746975</v>
+        <v>628.0136392763036</v>
       </c>
       <c r="AC2" t="n">
-        <v>516.3817507975571</v>
+        <v>568.0768989664509</v>
       </c>
       <c r="AD2" t="n">
-        <v>417223.9623246257</v>
+        <v>458992.3914348176</v>
       </c>
       <c r="AE2" t="n">
-        <v>570864.2318746975</v>
+        <v>628013.6392763036</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.5845970687489e-06</v>
+        <v>5.504515359798362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.787499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>516381.7507975571</v>
+        <v>568076.8989664509</v>
       </c>
     </row>
     <row r="3">
@@ -6029,28 +6029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.6932965623981</v>
+        <v>306.9130318353785</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.215731086516</v>
+        <v>419.931950204522</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.2147911372219</v>
+        <v>379.8542342551954</v>
       </c>
       <c r="AD3" t="n">
-        <v>275693.2965623981</v>
+        <v>306913.0318353786</v>
       </c>
       <c r="AE3" t="n">
-        <v>377215.7310865161</v>
+        <v>419931.9502045219</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.198245213036168e-06</v>
+        <v>6.811425313610275e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>341214.7911372219</v>
+        <v>379854.2342551954</v>
       </c>
     </row>
     <row r="4">
@@ -6135,28 +6135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.4839496003668</v>
+        <v>301.7036848733472</v>
       </c>
       <c r="AB4" t="n">
-        <v>370.0880727528968</v>
+        <v>412.8042918709027</v>
       </c>
       <c r="AC4" t="n">
-        <v>334.767386511232</v>
+        <v>373.4068296292054</v>
       </c>
       <c r="AD4" t="n">
-        <v>270483.9496003668</v>
+        <v>301703.6848733472</v>
       </c>
       <c r="AE4" t="n">
-        <v>370088.0727528968</v>
+        <v>412804.2918709026</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.232935530742858e-06</v>
+        <v>6.885306611767589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.426041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>334767.3865112319</v>
+        <v>373406.8296292055</v>
       </c>
     </row>
   </sheetData>
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>628.4480916810502</v>
+        <v>672.3352758658516</v>
       </c>
       <c r="AB2" t="n">
-        <v>859.8704042110739</v>
+        <v>919.9187857786377</v>
       </c>
       <c r="AC2" t="n">
-        <v>777.8055796688603</v>
+        <v>832.1230279780486</v>
       </c>
       <c r="AD2" t="n">
-        <v>628448.0916810501</v>
+        <v>672335.2758658516</v>
       </c>
       <c r="AE2" t="n">
-        <v>859870.404211074</v>
+        <v>919918.7857786377</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.129131354924152e-06</v>
+        <v>4.322872758618526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.882291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>777805.5796688603</v>
+        <v>832123.0279780487</v>
       </c>
     </row>
     <row r="3">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.3878703589018</v>
+        <v>399.3032584975028</v>
       </c>
       <c r="AB3" t="n">
-        <v>501.3080481171003</v>
+        <v>546.3443342927731</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.4639115950679</v>
+        <v>494.2019978269593</v>
       </c>
       <c r="AD3" t="n">
-        <v>366387.8703589017</v>
+        <v>399303.2584975028</v>
       </c>
       <c r="AE3" t="n">
-        <v>501308.0481171003</v>
+        <v>546344.334292773</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.870042001208669e-06</v>
+        <v>5.827177526845418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.846875000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>453463.9115950679</v>
+        <v>494201.9978269592</v>
       </c>
     </row>
     <row r="4">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.6061705699337</v>
+        <v>340.3509665079425</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.8803332002631</v>
+        <v>465.6832076010889</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.7121049088869</v>
+        <v>421.2390558581271</v>
       </c>
       <c r="AD4" t="n">
-        <v>307606.1705699337</v>
+        <v>340350.9665079425</v>
       </c>
       <c r="AE4" t="n">
-        <v>420880.3332002631</v>
+        <v>465683.2076010889</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.128933805639898e-06</v>
+        <v>6.3528173969347e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.363541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>380712.1049088869</v>
+        <v>421239.0558581271</v>
       </c>
     </row>
     <row r="5">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.8208922503257</v>
+        <v>316.7645738512774</v>
       </c>
       <c r="AB5" t="n">
-        <v>403.3869513567043</v>
+        <v>433.4112646100347</v>
       </c>
       <c r="AC5" t="n">
-        <v>364.8882668763618</v>
+        <v>392.0471018121825</v>
       </c>
       <c r="AD5" t="n">
-        <v>294820.8922503257</v>
+        <v>316764.5738512774</v>
       </c>
       <c r="AE5" t="n">
-        <v>403386.9513567043</v>
+        <v>433411.2646100346</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.18531969957327e-06</v>
+        <v>6.467300256008285e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.26875</v>
       </c>
       <c r="AH5" t="n">
-        <v>364888.2668763618</v>
+        <v>392047.1018121825</v>
       </c>
     </row>
     <row r="6">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>296.4370757777979</v>
+        <v>318.3807573787496</v>
       </c>
       <c r="AB6" t="n">
-        <v>405.5982849599769</v>
+        <v>435.6225982133071</v>
       </c>
       <c r="AC6" t="n">
-        <v>366.8885539041642</v>
+        <v>394.0473888399849</v>
       </c>
       <c r="AD6" t="n">
-        <v>296437.0757777979</v>
+        <v>318380.7573787497</v>
       </c>
       <c r="AE6" t="n">
-        <v>405598.2849599769</v>
+        <v>435622.5982133072</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.18531969957327e-06</v>
+        <v>6.467300256008285e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.26875</v>
       </c>
       <c r="AH6" t="n">
-        <v>366888.5539041642</v>
+        <v>394047.388839985</v>
       </c>
     </row>
   </sheetData>
@@ -7153,28 +7153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.8484277308875</v>
+        <v>332.9026412758474</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.3705795510798</v>
+        <v>455.4920804216183</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.823633011485</v>
+        <v>412.0205555533283</v>
       </c>
       <c r="AD2" t="n">
-        <v>302848.4277308875</v>
+        <v>332902.6412758474</v>
       </c>
       <c r="AE2" t="n">
-        <v>414370.5795510798</v>
+        <v>455492.0804216183</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.977274264411063e-06</v>
+        <v>6.629808253602644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.118749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>374823.633011485</v>
+        <v>412020.5555533284</v>
       </c>
     </row>
     <row r="3">
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.8112063447713</v>
+        <v>282.9506712357549</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.9074457640213</v>
+        <v>387.1455912873768</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.8945246245556</v>
+        <v>350.1969594171588</v>
       </c>
       <c r="AD3" t="n">
-        <v>252811.2063447713</v>
+        <v>282950.6712357549</v>
       </c>
       <c r="AE3" t="n">
-        <v>345907.4457640213</v>
+        <v>387145.5912873768</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.227027401318717e-06</v>
+        <v>7.185959706704011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.645833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>312894.5246245555</v>
+        <v>350196.9594171588</v>
       </c>
     </row>
   </sheetData>
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1447.005967234566</v>
+        <v>1518.098756999524</v>
       </c>
       <c r="AB2" t="n">
-        <v>1979.857401768189</v>
+        <v>2077.129693117136</v>
       </c>
       <c r="AC2" t="n">
-        <v>1790.902590090749</v>
+        <v>1878.891350475869</v>
       </c>
       <c r="AD2" t="n">
-        <v>1447005.967234566</v>
+        <v>1518098.756999524</v>
       </c>
       <c r="AE2" t="n">
-        <v>1979857.401768189</v>
+        <v>2077129.693117135</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.37699649863075e-06</v>
+        <v>2.603574951431866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.31458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1790902.590090749</v>
+        <v>1878891.350475869</v>
       </c>
     </row>
     <row r="3">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>604.6295190727361</v>
+        <v>652.0530995285318</v>
       </c>
       <c r="AB3" t="n">
-        <v>827.2807823671171</v>
+        <v>892.1678173274479</v>
       </c>
       <c r="AC3" t="n">
-        <v>748.3262655938693</v>
+        <v>807.0205730071115</v>
       </c>
       <c r="AD3" t="n">
-        <v>604629.5190727361</v>
+        <v>652053.0995285318</v>
       </c>
       <c r="AE3" t="n">
-        <v>827280.7823671171</v>
+        <v>892167.8173274479</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.286319699638131e-06</v>
+        <v>4.322890222932436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.814583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>748326.2655938693</v>
+        <v>807020.5730071114</v>
       </c>
     </row>
     <row r="4">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>478.1864833216018</v>
+        <v>525.524722922826</v>
       </c>
       <c r="AB4" t="n">
-        <v>654.2758425793727</v>
+        <v>719.0461104175057</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.832674445509</v>
+        <v>650.4213588268126</v>
       </c>
       <c r="AD4" t="n">
-        <v>478186.4833216018</v>
+        <v>525524.722922826</v>
       </c>
       <c r="AE4" t="n">
-        <v>654275.8425793727</v>
+        <v>719046.1104175057</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.612509486052128e-06</v>
+        <v>4.939638020159861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>591832.6744455091</v>
+        <v>650421.3588268126</v>
       </c>
     </row>
     <row r="5">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>427.0486986271305</v>
+        <v>462.6803896099061</v>
       </c>
       <c r="AB5" t="n">
-        <v>584.3068695205596</v>
+        <v>633.0597210824561</v>
       </c>
       <c r="AC5" t="n">
-        <v>528.5414419733587</v>
+        <v>572.6413898072447</v>
       </c>
       <c r="AD5" t="n">
-        <v>427048.6986271305</v>
+        <v>462680.3896099061</v>
       </c>
       <c r="AE5" t="n">
-        <v>584306.8695205597</v>
+        <v>633059.7210824562</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.7885412965103e-06</v>
+        <v>5.272472571896074e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.586458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>528541.4419733587</v>
+        <v>572641.3898072446</v>
       </c>
     </row>
     <row r="6">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>395.4745542016656</v>
+        <v>430.9356529838489</v>
       </c>
       <c r="AB6" t="n">
-        <v>541.1057321646963</v>
+        <v>589.6251719517456</v>
       </c>
       <c r="AC6" t="n">
-        <v>489.4633605335618</v>
+        <v>533.3521730847966</v>
       </c>
       <c r="AD6" t="n">
-        <v>395474.5542016656</v>
+        <v>430935.6529838489</v>
       </c>
       <c r="AE6" t="n">
-        <v>541105.7321646963</v>
+        <v>589625.1719517456</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.896074747418904e-06</v>
+        <v>5.475792914035697e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.379166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>489463.3605335618</v>
+        <v>533352.1730847966</v>
       </c>
     </row>
     <row r="7">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>371.4944571842106</v>
+        <v>395.2490073479453</v>
       </c>
       <c r="AB7" t="n">
-        <v>508.2951054981987</v>
+        <v>540.7971290090113</v>
       </c>
       <c r="AC7" t="n">
-        <v>459.7841340261108</v>
+        <v>489.1842100299281</v>
       </c>
       <c r="AD7" t="n">
-        <v>371494.4571842106</v>
+        <v>395249.0073479453</v>
       </c>
       <c r="AE7" t="n">
-        <v>508295.1054981987</v>
+        <v>540797.1290090113</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.971004175659808e-06</v>
+        <v>5.61746675466428e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.24375</v>
       </c>
       <c r="AH7" t="n">
-        <v>459784.1340261109</v>
+        <v>489184.2100299281</v>
       </c>
     </row>
     <row r="8">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>354.8645036231605</v>
+        <v>378.6190537868952</v>
       </c>
       <c r="AB8" t="n">
-        <v>485.5412693741981</v>
+        <v>518.0432928850107</v>
       </c>
       <c r="AC8" t="n">
-        <v>439.2018920865754</v>
+        <v>468.6019680903925</v>
       </c>
       <c r="AD8" t="n">
-        <v>354864.5036231605</v>
+        <v>378619.0537868952</v>
       </c>
       <c r="AE8" t="n">
-        <v>485541.269374198</v>
+        <v>518043.2928850108</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.016171216236162e-06</v>
+        <v>5.702866954005263e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.165625</v>
       </c>
       <c r="AH8" t="n">
-        <v>439201.8920865754</v>
+        <v>468601.9680903925</v>
       </c>
     </row>
     <row r="9">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>350.4919810243149</v>
+        <v>374.2465311880496</v>
       </c>
       <c r="AB9" t="n">
-        <v>479.5585910523748</v>
+        <v>512.0606145631874</v>
       </c>
       <c r="AC9" t="n">
-        <v>433.7901921870452</v>
+        <v>463.1902681908622</v>
       </c>
       <c r="AD9" t="n">
-        <v>350491.9810243149</v>
+        <v>374246.5311880496</v>
       </c>
       <c r="AE9" t="n">
-        <v>479558.5910523748</v>
+        <v>512060.6145631874</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.029482032829855e-06</v>
+        <v>5.72803456242032e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.142708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>433790.1921870452</v>
+        <v>463190.2681908623</v>
       </c>
     </row>
     <row r="10">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>351.7162141125004</v>
+        <v>375.4707642762351</v>
       </c>
       <c r="AB10" t="n">
-        <v>481.2336407729823</v>
+        <v>513.7356642837948</v>
       </c>
       <c r="AC10" t="n">
-        <v>435.3053775132649</v>
+        <v>464.705453517082</v>
       </c>
       <c r="AD10" t="n">
-        <v>351716.2141125004</v>
+        <v>375470.7642762351</v>
       </c>
       <c r="AE10" t="n">
-        <v>481233.6407729823</v>
+        <v>513735.6642837948</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.029631592566863e-06</v>
+        <v>5.728317344537343e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.141666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>435305.3775132649</v>
+        <v>464705.453517082</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.4991761173145</v>
+        <v>275.8979430717139</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.2710475396989</v>
+        <v>377.4957374689288</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.0823721254987</v>
+        <v>341.4680741034886</v>
       </c>
       <c r="AD2" t="n">
-        <v>246499.1761173145</v>
+        <v>275897.9430717139</v>
       </c>
       <c r="AE2" t="n">
-        <v>337271.0475396989</v>
+        <v>377495.7374689288</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.159470867913181e-06</v>
+        <v>7.243297853634832e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.901041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>305082.3721254987</v>
+        <v>341468.0741034886</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.3371011261796</v>
+        <v>273.735868080579</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.3128011528128</v>
+        <v>374.5374910820412</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.4064566218512</v>
+        <v>338.7921585998407</v>
       </c>
       <c r="AD3" t="n">
-        <v>244337.1011261796</v>
+        <v>273735.868080579</v>
       </c>
       <c r="AE3" t="n">
-        <v>334312.8011528128</v>
+        <v>374537.4910820412</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.19043554387902e-06</v>
+        <v>7.314286440122414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>302406.4566218512</v>
+        <v>338792.1585998407</v>
       </c>
     </row>
   </sheetData>
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>907.2173257720093</v>
+        <v>952.7985779471884</v>
       </c>
       <c r="AB2" t="n">
-        <v>1241.294768724953</v>
+        <v>1303.661048853956</v>
       </c>
       <c r="AC2" t="n">
-        <v>1122.827338165992</v>
+        <v>1179.241468051107</v>
       </c>
       <c r="AD2" t="n">
-        <v>907217.3257720093</v>
+        <v>952798.5779471884</v>
       </c>
       <c r="AE2" t="n">
-        <v>1241294.768724953</v>
+        <v>1303661.048853956</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.77335918090836e-06</v>
+        <v>3.475759486873226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.133333333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>1122827.338165992</v>
+        <v>1179241.468051107</v>
       </c>
     </row>
     <row r="3">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.2737257659182</v>
+        <v>505.3743464198686</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.8175027223467</v>
+        <v>691.4754763142887</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.2770252695742</v>
+        <v>625.4820273467785</v>
       </c>
       <c r="AD3" t="n">
-        <v>471273.7257659182</v>
+        <v>505374.3464198686</v>
       </c>
       <c r="AE3" t="n">
-        <v>644817.5027223467</v>
+        <v>691475.4763142887</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.59154559124942e-06</v>
+        <v>5.079393543859365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>583277.0252695743</v>
+        <v>625482.0273467785</v>
       </c>
     </row>
     <row r="4">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>381.3495967881344</v>
+        <v>415.5354687881053</v>
       </c>
       <c r="AB4" t="n">
-        <v>521.7793422823613</v>
+        <v>568.5539605269528</v>
       </c>
       <c r="AC4" t="n">
-        <v>471.9814541768384</v>
+        <v>514.2919685047549</v>
       </c>
       <c r="AD4" t="n">
-        <v>381349.5967881344</v>
+        <v>415535.4687881053</v>
       </c>
       <c r="AE4" t="n">
-        <v>521779.3422823614</v>
+        <v>568553.9605269528</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.884021577158111e-06</v>
+        <v>5.652642434241525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.615624999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>471981.4541768384</v>
+        <v>514291.9685047549</v>
       </c>
     </row>
     <row r="5">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.4997184230868</v>
+        <v>376.5149982224656</v>
       </c>
       <c r="AB5" t="n">
-        <v>468.6232247676336</v>
+        <v>515.1644312373778</v>
       </c>
       <c r="AC5" t="n">
-        <v>423.8984819126367</v>
+        <v>465.997860957902</v>
       </c>
       <c r="AD5" t="n">
-        <v>342499.7184230869</v>
+        <v>376514.9982224656</v>
       </c>
       <c r="AE5" t="n">
-        <v>468623.2247676336</v>
+        <v>515164.4312373778</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.037023368829644e-06</v>
+        <v>5.952523831443038e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>423898.4819126367</v>
+        <v>465997.860957902</v>
       </c>
     </row>
     <row r="6">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.9874426451437</v>
+        <v>342.7781134870087</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.8209358767388</v>
+        <v>469.0041371760148</v>
       </c>
       <c r="AC6" t="n">
-        <v>396.035920242205</v>
+        <v>424.2430405753759</v>
       </c>
       <c r="AD6" t="n">
-        <v>319987.4426451437</v>
+        <v>342778.1134870087</v>
       </c>
       <c r="AE6" t="n">
-        <v>437820.9358767387</v>
+        <v>469004.1371760148</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.112124858034268e-06</v>
+        <v>6.099721712386463e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.204166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>396035.920242205</v>
+        <v>424243.0405753759</v>
       </c>
     </row>
     <row r="7">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>319.6000866454967</v>
+        <v>342.3907574873617</v>
       </c>
       <c r="AB7" t="n">
-        <v>437.2909383090812</v>
+        <v>468.4741396083572</v>
       </c>
       <c r="AC7" t="n">
-        <v>395.5565048985484</v>
+        <v>423.7636252317192</v>
       </c>
       <c r="AD7" t="n">
-        <v>319600.0866454967</v>
+        <v>342390.7574873617</v>
       </c>
       <c r="AE7" t="n">
-        <v>437290.9383090812</v>
+        <v>468474.1396083572</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.118810911938613e-06</v>
+        <v>6.112826285638155e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.193750000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>395556.5048985484</v>
+        <v>423763.6252317192</v>
       </c>
     </row>
   </sheetData>
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1141.60641441734</v>
+        <v>1199.750549401342</v>
       </c>
       <c r="AB2" t="n">
-        <v>1561.996260326287</v>
+        <v>1641.551630949597</v>
       </c>
       <c r="AC2" t="n">
-        <v>1412.921529516266</v>
+        <v>1484.884247223951</v>
       </c>
       <c r="AD2" t="n">
-        <v>1141606.41441734</v>
+        <v>1199750.549401342</v>
       </c>
       <c r="AE2" t="n">
-        <v>1561996.260326287</v>
+        <v>1641551.630949597</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.568126765370598e-06</v>
+        <v>3.015042163549597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.12083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1412921.529516266</v>
+        <v>1484884.247223951</v>
       </c>
     </row>
     <row r="3">
@@ -10037,28 +10037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.5676548217941</v>
+        <v>571.5906274743796</v>
       </c>
       <c r="AB3" t="n">
-        <v>734.1555370214462</v>
+        <v>782.0755133092188</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.0887629618862</v>
+        <v>707.4353239688631</v>
       </c>
       <c r="AD3" t="n">
-        <v>536567.6548217941</v>
+        <v>571590.6274743796</v>
       </c>
       <c r="AE3" t="n">
-        <v>734155.5370214462</v>
+        <v>782075.5133092188</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.431487727126663e-06</v>
+        <v>4.675028944938461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.527083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>664088.7629618862</v>
+        <v>707435.3239688631</v>
       </c>
     </row>
     <row r="4">
@@ -10143,28 +10143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>429.7061548502986</v>
+        <v>464.6437866483122</v>
       </c>
       <c r="AB4" t="n">
-        <v>587.9429183637924</v>
+        <v>635.7461275293674</v>
       </c>
       <c r="AC4" t="n">
-        <v>531.8304714182199</v>
+        <v>575.0714093932579</v>
       </c>
       <c r="AD4" t="n">
-        <v>429706.1548502985</v>
+        <v>464643.7866483122</v>
       </c>
       <c r="AE4" t="n">
-        <v>587942.9183637924</v>
+        <v>635746.1275293675</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.741822344930987e-06</v>
+        <v>5.271710270805606e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.787500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>531830.4714182199</v>
+        <v>575071.4093932579</v>
       </c>
     </row>
     <row r="5">
@@ -10249,28 +10249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.6950200615552</v>
+        <v>420.4620596589767</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.7249421116004</v>
+        <v>575.2947395023286</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.3596143030767</v>
+        <v>520.3894169954636</v>
       </c>
       <c r="AD5" t="n">
-        <v>385695.0200615551</v>
+        <v>420462.0596589767</v>
       </c>
       <c r="AE5" t="n">
-        <v>527724.9421116004</v>
+        <v>575294.7395023287</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.90437857330468e-06</v>
+        <v>5.584257631974111e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.464583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>477359.6143030767</v>
+        <v>520389.4169954637</v>
       </c>
     </row>
     <row r="6">
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>355.9656599953517</v>
+        <v>390.7326995927731</v>
       </c>
       <c r="AB6" t="n">
-        <v>487.0479201022205</v>
+        <v>534.6177174929486</v>
       </c>
       <c r="AC6" t="n">
-        <v>440.564750183713</v>
+        <v>483.5945528761</v>
       </c>
       <c r="AD6" t="n">
-        <v>355965.6599953517</v>
+        <v>390732.6995927732</v>
       </c>
       <c r="AE6" t="n">
-        <v>487047.9201022206</v>
+        <v>534617.7174929486</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.005690561934958e-06</v>
+        <v>5.77905050467988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.280208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>440564.750183713</v>
+        <v>483594.5528760999</v>
       </c>
     </row>
     <row r="7">
@@ -10461,28 +10461,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>336.7444257123598</v>
+        <v>360.03626975292</v>
       </c>
       <c r="AB7" t="n">
-        <v>460.7485793752221</v>
+        <v>492.6175079551539</v>
       </c>
       <c r="AC7" t="n">
-        <v>416.7753816243427</v>
+        <v>445.602784388928</v>
       </c>
       <c r="AD7" t="n">
-        <v>336744.4257123598</v>
+        <v>360036.26975292</v>
       </c>
       <c r="AE7" t="n">
-        <v>460748.5793752221</v>
+        <v>492617.5079551539</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.064497219997043e-06</v>
+        <v>5.892118247333153e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.178125000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>416775.3816243428</v>
+        <v>445602.784388928</v>
       </c>
     </row>
     <row r="8">
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>335.432741730565</v>
+        <v>358.7245857711251</v>
       </c>
       <c r="AB8" t="n">
-        <v>458.953875483917</v>
+        <v>490.8228040638489</v>
       </c>
       <c r="AC8" t="n">
-        <v>415.1519617535411</v>
+        <v>443.9793645181264</v>
       </c>
       <c r="AD8" t="n">
-        <v>335432.741730565</v>
+        <v>358724.5857711251</v>
       </c>
       <c r="AE8" t="n">
-        <v>458953.8754839171</v>
+        <v>490822.8040638489</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.070743523055452e-06</v>
+        <v>5.9041280334699e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.167708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>415151.9617535411</v>
+        <v>443979.3645181264</v>
       </c>
     </row>
     <row r="9">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>336.8453398265328</v>
+        <v>360.1371838670929</v>
       </c>
       <c r="AB9" t="n">
-        <v>460.8866545182499</v>
+        <v>492.7555830981817</v>
       </c>
       <c r="AC9" t="n">
-        <v>416.9002790695097</v>
+        <v>445.7276818340949</v>
       </c>
       <c r="AD9" t="n">
-        <v>336845.3398265328</v>
+        <v>360137.1838670929</v>
       </c>
       <c r="AE9" t="n">
-        <v>460886.65451825</v>
+        <v>492755.5830981816</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.070743523055452e-06</v>
+        <v>5.9041280334699e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.167708333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>416900.2790695097</v>
+        <v>445727.6818340949</v>
       </c>
     </row>
   </sheetData>
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1841.349860399219</v>
+        <v>1925.914507620234</v>
       </c>
       <c r="AB2" t="n">
-        <v>2519.416113620799</v>
+        <v>2635.121194677527</v>
       </c>
       <c r="AC2" t="n">
-        <v>2278.966575759554</v>
+        <v>2383.628926273328</v>
       </c>
       <c r="AD2" t="n">
-        <v>1841349.860399219</v>
+        <v>1925914.507620234</v>
       </c>
       <c r="AE2" t="n">
-        <v>2519416.1136208</v>
+        <v>2635121.194677527</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.204197632423908e-06</v>
+        <v>2.243328855121248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.71979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2278966.575759554</v>
+        <v>2383628.926273328</v>
       </c>
     </row>
     <row r="3">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>690.7072447853543</v>
+        <v>726.9859006120141</v>
       </c>
       <c r="AB3" t="n">
-        <v>945.0561241683669</v>
+        <v>994.69418157174</v>
       </c>
       <c r="AC3" t="n">
-        <v>854.8612940723382</v>
+        <v>899.7619649445845</v>
       </c>
       <c r="AD3" t="n">
-        <v>690707.2447853544</v>
+        <v>726985.9006120141</v>
       </c>
       <c r="AE3" t="n">
-        <v>945056.1241683669</v>
+        <v>994694.1815717401</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.150762556091352e-06</v>
+        <v>4.006707514348928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.121875</v>
       </c>
       <c r="AH3" t="n">
-        <v>854861.2940723381</v>
+        <v>899761.9649445845</v>
       </c>
     </row>
     <row r="4">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>540.1843111414861</v>
+        <v>576.3776261135741</v>
       </c>
       <c r="AB4" t="n">
-        <v>739.1040057536645</v>
+        <v>788.6252960348399</v>
       </c>
       <c r="AC4" t="n">
-        <v>668.5649567835213</v>
+        <v>713.3600046238287</v>
       </c>
       <c r="AD4" t="n">
-        <v>540184.311141486</v>
+        <v>576377.6261135741</v>
       </c>
       <c r="AE4" t="n">
-        <v>739104.0057536645</v>
+        <v>788625.2960348399</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492508226839082e-06</v>
+        <v>4.643353778764826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>668564.9567835213</v>
+        <v>713360.0046238287</v>
       </c>
     </row>
     <row r="5">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>469.3776653346991</v>
+        <v>505.6562316528077</v>
       </c>
       <c r="AB5" t="n">
-        <v>642.2232291920702</v>
+        <v>691.8611641258949</v>
       </c>
       <c r="AC5" t="n">
-        <v>580.9303455639415</v>
+        <v>625.8309056549613</v>
       </c>
       <c r="AD5" t="n">
-        <v>469377.6653346991</v>
+        <v>505656.2316528077</v>
       </c>
       <c r="AE5" t="n">
-        <v>642223.2291920702</v>
+        <v>691861.1641258949</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.676027416638208e-06</v>
+        <v>4.985236110086271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.723958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>580930.3455639415</v>
+        <v>625830.9056549612</v>
       </c>
     </row>
     <row r="6">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>436.0541285010006</v>
+        <v>472.1621026185171</v>
       </c>
       <c r="AB6" t="n">
-        <v>596.6284959655154</v>
+        <v>646.0330191244932</v>
       </c>
       <c r="AC6" t="n">
-        <v>539.6871096839193</v>
+        <v>584.3765344922878</v>
       </c>
       <c r="AD6" t="n">
-        <v>436054.1285010006</v>
+        <v>472162.1026185171</v>
       </c>
       <c r="AE6" t="n">
-        <v>596628.4959655154</v>
+        <v>646033.0191244932</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.787050644441364e-06</v>
+        <v>5.192063962768716e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.495833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>539687.1096839192</v>
+        <v>584376.5344922878</v>
       </c>
     </row>
     <row r="7">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>411.0225640726323</v>
+        <v>447.1305381901487</v>
       </c>
       <c r="AB7" t="n">
-        <v>562.3792051999378</v>
+        <v>611.7837283589157</v>
       </c>
       <c r="AC7" t="n">
-        <v>508.7065231598269</v>
+        <v>553.3959479681954</v>
       </c>
       <c r="AD7" t="n">
-        <v>411022.5640726323</v>
+        <v>447130.5381901487</v>
       </c>
       <c r="AE7" t="n">
-        <v>562379.2051999378</v>
+        <v>611783.7283589157</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.864105176055741e-06</v>
+        <v>5.335610710855605e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.347916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>508706.5231598269</v>
+        <v>553395.9479681954</v>
       </c>
     </row>
     <row r="8">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>391.2310069057888</v>
+        <v>415.416807293079</v>
       </c>
       <c r="AB8" t="n">
-        <v>535.2995235423839</v>
+        <v>568.3916026344821</v>
       </c>
       <c r="AC8" t="n">
-        <v>484.2112883130979</v>
+        <v>514.145105821671</v>
       </c>
       <c r="AD8" t="n">
-        <v>391231.0069057888</v>
+        <v>415416.807293079</v>
       </c>
       <c r="AE8" t="n">
-        <v>535299.5235423839</v>
+        <v>568391.6026344821</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.921601973500819e-06</v>
+        <v>5.442722883569295e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.242708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>484211.2883130979</v>
+        <v>514145.105821671</v>
       </c>
     </row>
     <row r="9">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>374.856329773632</v>
+        <v>399.0421301609221</v>
       </c>
       <c r="AB9" t="n">
-        <v>512.8949678903962</v>
+        <v>545.9870469824943</v>
       </c>
       <c r="AC9" t="n">
-        <v>463.9449920075445</v>
+        <v>493.8788095161175</v>
       </c>
       <c r="AD9" t="n">
-        <v>374856.329773632</v>
+        <v>399042.1301609221</v>
       </c>
       <c r="AE9" t="n">
-        <v>512894.9678903961</v>
+        <v>545987.0469824943</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.964834859559267e-06</v>
+        <v>5.523262471236367e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>463944.9920075445</v>
+        <v>493878.8095161176</v>
       </c>
     </row>
     <row r="10">
@@ -11818,28 +11818,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>366.8292242868561</v>
+        <v>391.0150246741463</v>
       </c>
       <c r="AB10" t="n">
-        <v>501.9119280324887</v>
+        <v>535.0040071245868</v>
       </c>
       <c r="AC10" t="n">
-        <v>454.0101580588824</v>
+        <v>483.9439755674555</v>
       </c>
       <c r="AD10" t="n">
-        <v>366829.2242868561</v>
+        <v>391015.0246741463</v>
       </c>
       <c r="AE10" t="n">
-        <v>501911.9280324887</v>
+        <v>535004.0071245868</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.983657340564305e-06</v>
+        <v>5.558327325730874e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>454010.1580588825</v>
+        <v>483943.9755674555</v>
       </c>
     </row>
     <row r="11">
@@ -11924,28 +11924,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>366.9350648466407</v>
+        <v>391.1208652339309</v>
       </c>
       <c r="AB11" t="n">
-        <v>502.0567437557419</v>
+        <v>535.1488228478402</v>
       </c>
       <c r="AC11" t="n">
-        <v>454.1411527727586</v>
+        <v>484.0749702813317</v>
       </c>
       <c r="AD11" t="n">
-        <v>366935.0648466407</v>
+        <v>391120.8652339309</v>
       </c>
       <c r="AE11" t="n">
-        <v>502056.7437557419</v>
+        <v>535148.8228478401</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.987921808917009e-06</v>
+        <v>5.566271706827285e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.126041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>454141.1527727586</v>
+        <v>484074.9702813317</v>
       </c>
     </row>
   </sheetData>
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>715.9168934740885</v>
+        <v>760.3135760845041</v>
       </c>
       <c r="AB2" t="n">
-        <v>979.5490776754998</v>
+        <v>1040.294577466473</v>
       </c>
       <c r="AC2" t="n">
-        <v>886.0622885079148</v>
+        <v>941.0103230556819</v>
       </c>
       <c r="AD2" t="n">
-        <v>715916.8934740885</v>
+        <v>760313.5760845041</v>
       </c>
       <c r="AE2" t="n">
-        <v>979549.0776754998</v>
+        <v>1040294.577466473</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.004010005681089e-06</v>
+        <v>4.017032755709854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.268749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>886062.2885079148</v>
+        <v>941010.3230556819</v>
       </c>
     </row>
     <row r="3">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>396.6523825069115</v>
+        <v>440.9636347542044</v>
       </c>
       <c r="AB3" t="n">
-        <v>542.7172888140514</v>
+        <v>603.3458990132784</v>
       </c>
       <c r="AC3" t="n">
-        <v>490.9211124781363</v>
+        <v>545.7634132127381</v>
       </c>
       <c r="AD3" t="n">
-        <v>396652.3825069115</v>
+        <v>440963.6347542044</v>
       </c>
       <c r="AE3" t="n">
-        <v>542717.2888140513</v>
+        <v>603345.8990132784</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.773987653335012e-06</v>
+        <v>5.560450913813822e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.973958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>490921.1124781363</v>
+        <v>545763.4132127381</v>
       </c>
     </row>
     <row r="4">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.317622262906</v>
+        <v>366.5084805296409</v>
       </c>
       <c r="AB4" t="n">
-        <v>456.0598757157809</v>
+        <v>501.4730722736509</v>
       </c>
       <c r="AC4" t="n">
-        <v>412.5341612615216</v>
+        <v>453.6131860777303</v>
       </c>
       <c r="AD4" t="n">
-        <v>333317.6222629059</v>
+        <v>366508.4805296409</v>
       </c>
       <c r="AE4" t="n">
-        <v>456059.8757157809</v>
+        <v>501473.0722736508</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.039502672742945e-06</v>
+        <v>6.092675067920336e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.452083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>412534.1612615216</v>
+        <v>453613.1860777303</v>
       </c>
     </row>
     <row r="5">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>304.254830681951</v>
+        <v>326.4958871687201</v>
       </c>
       <c r="AB5" t="n">
-        <v>416.294882114844</v>
+        <v>446.7260768062037</v>
       </c>
       <c r="AC5" t="n">
-        <v>376.5642828393392</v>
+        <v>404.0911670198055</v>
       </c>
       <c r="AD5" t="n">
-        <v>304254.830681951</v>
+        <v>326495.8871687201</v>
       </c>
       <c r="AE5" t="n">
-        <v>416294.882114844</v>
+        <v>446726.0768062037</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.155953837636059e-06</v>
+        <v>6.326101119931101e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.251041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>376564.2828393392</v>
+        <v>404091.1670198055</v>
       </c>
     </row>
     <row r="6">
@@ -12645,28 +12645,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>304.4290394669012</v>
+        <v>326.6700959536703</v>
       </c>
       <c r="AB6" t="n">
-        <v>416.5332422599622</v>
+        <v>446.9644369513218</v>
       </c>
       <c r="AC6" t="n">
-        <v>376.7798942267478</v>
+        <v>404.3067784072141</v>
       </c>
       <c r="AD6" t="n">
-        <v>304429.0394669012</v>
+        <v>326670.0959536703</v>
       </c>
       <c r="AE6" t="n">
-        <v>416533.2422599621</v>
+        <v>446964.4369513218</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.160090081197836e-06</v>
+        <v>6.334392209210172e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.24375</v>
       </c>
       <c r="AH6" t="n">
-        <v>376779.8942267478</v>
+        <v>404306.7784072141</v>
       </c>
     </row>
   </sheetData>
@@ -12942,28 +12942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>490.7764529070407</v>
+        <v>522.7122894362079</v>
       </c>
       <c r="AB2" t="n">
-        <v>671.5019943964281</v>
+        <v>715.1980148453063</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.4147865102004</v>
+        <v>646.9405200951878</v>
       </c>
       <c r="AD2" t="n">
-        <v>490776.4529070407</v>
+        <v>522712.2894362079</v>
       </c>
       <c r="AE2" t="n">
-        <v>671501.9943964281</v>
+        <v>715198.0148453063</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.41679018464226e-06</v>
+        <v>5.056076207295429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.142708333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>607414.7865102005</v>
+        <v>646940.5200951878</v>
       </c>
     </row>
     <row r="3">
@@ -13048,28 +13048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.3381487839926</v>
+        <v>336.2738958046087</v>
       </c>
       <c r="AB3" t="n">
-        <v>416.4088816177927</v>
+        <v>460.1047795971227</v>
       </c>
       <c r="AC3" t="n">
-        <v>376.6674023897259</v>
+        <v>416.1930251934866</v>
       </c>
       <c r="AD3" t="n">
-        <v>304338.1487839926</v>
+        <v>336273.8958046088</v>
       </c>
       <c r="AE3" t="n">
-        <v>416408.8816177927</v>
+        <v>460104.7795971227</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.091748112648838e-06</v>
+        <v>6.468130403148026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>376667.4023897258</v>
+        <v>416193.0251934865</v>
       </c>
     </row>
     <row r="4">
@@ -13154,28 +13154,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.7020248727405</v>
+        <v>310.4671796927645</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.3324058964517</v>
+        <v>424.7948921009346</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.9385762810866</v>
+        <v>384.2530638021962</v>
       </c>
       <c r="AD4" t="n">
-        <v>278702.0248727405</v>
+        <v>310467.1796927645</v>
       </c>
       <c r="AE4" t="n">
-        <v>381332.4058964517</v>
+        <v>424794.8921009346</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.218354510143811e-06</v>
+        <v>6.73299890440788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.363541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>344938.5762810866</v>
+        <v>384253.0638021962</v>
       </c>
     </row>
     <row r="5">
@@ -13260,28 +13260,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>280.4860894564433</v>
+        <v>312.2512442764672</v>
       </c>
       <c r="AB5" t="n">
-        <v>383.7734417672484</v>
+        <v>427.2359279717314</v>
       </c>
       <c r="AC5" t="n">
-        <v>347.1466431143899</v>
+        <v>386.4611306354995</v>
       </c>
       <c r="AD5" t="n">
-        <v>280486.0894564433</v>
+        <v>312251.2442764672</v>
       </c>
       <c r="AE5" t="n">
-        <v>383773.4417672484</v>
+        <v>427235.9279717313</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.218023079783876e-06</v>
+        <v>6.732305531367933e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>347146.6431143899</v>
+        <v>386461.1306354995</v>
       </c>
     </row>
   </sheetData>
@@ -23962,28 +23962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.3312605689811</v>
+        <v>390.0421648316425</v>
       </c>
       <c r="AB2" t="n">
-        <v>491.6528832868785</v>
+        <v>533.6728973685259</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.7302221451336</v>
+        <v>482.7399050582889</v>
       </c>
       <c r="AD2" t="n">
-        <v>359331.2605689811</v>
+        <v>390042.1648316425</v>
       </c>
       <c r="AE2" t="n">
-        <v>491652.8832868785</v>
+        <v>533672.897368526</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.768166443061814e-06</v>
+        <v>6.017594594173964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.451041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>444730.2221451336</v>
+        <v>482739.9050582888</v>
       </c>
     </row>
     <row r="3">
@@ -24068,28 +24068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.3095483135539</v>
+        <v>292.1057039222359</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.5352521662602</v>
+        <v>399.671910900557</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.4125895033895</v>
+        <v>361.527784667257</v>
       </c>
       <c r="AD3" t="n">
-        <v>261309.5483135539</v>
+        <v>292105.7039222359</v>
       </c>
       <c r="AE3" t="n">
-        <v>357535.2521662602</v>
+        <v>399671.9109005569</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.234098842878634e-06</v>
+        <v>7.030464429878995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>323412.5895033896</v>
+        <v>361527.784667257</v>
       </c>
     </row>
     <row r="4">
@@ -24174,28 +24174,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>263.3083979743138</v>
+        <v>294.1045535829957</v>
       </c>
       <c r="AB4" t="n">
-        <v>360.2701664551351</v>
+        <v>402.406825189432</v>
       </c>
       <c r="AC4" t="n">
-        <v>325.8864874110106</v>
+        <v>364.0016825748781</v>
       </c>
       <c r="AD4" t="n">
-        <v>263308.3979743138</v>
+        <v>294104.5535829957</v>
       </c>
       <c r="AE4" t="n">
-        <v>360270.1664551351</v>
+        <v>402406.825189432</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.233413143982656e-06</v>
+        <v>7.028973819377589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.522916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>325886.4874110107</v>
+        <v>364001.6825748782</v>
       </c>
     </row>
   </sheetData>
@@ -24471,28 +24471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.6186633862579</v>
+        <v>271.070544063362</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.9615588249306</v>
+        <v>370.8906771758881</v>
       </c>
       <c r="AC2" t="n">
-        <v>300.2796135617519</v>
+        <v>335.4933914945554</v>
       </c>
       <c r="AD2" t="n">
-        <v>242618.6633862579</v>
+        <v>271070.5440633621</v>
       </c>
       <c r="AE2" t="n">
-        <v>331961.5588249306</v>
+        <v>370890.6771758882</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.099512760822387e-06</v>
+        <v>7.372274675399868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.183333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>300279.613561752</v>
+        <v>335493.3914945554</v>
       </c>
     </row>
   </sheetData>
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1011.677091499629</v>
+        <v>1069.293373005397</v>
       </c>
       <c r="AB2" t="n">
-        <v>1384.221228633099</v>
+        <v>1463.054366840235</v>
       </c>
       <c r="AC2" t="n">
-        <v>1252.113097339051</v>
+        <v>1323.422511478703</v>
       </c>
       <c r="AD2" t="n">
-        <v>1011677.091499629</v>
+        <v>1069293.373005397</v>
       </c>
       <c r="AE2" t="n">
-        <v>1384221.228633099</v>
+        <v>1463054.366840235</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.668563405041463e-06</v>
+        <v>3.237977760779009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.606250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>1252113.097339051</v>
+        <v>1323422.511478703</v>
       </c>
     </row>
     <row r="3">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.8233792042686</v>
+        <v>537.3078967617089</v>
       </c>
       <c r="AB3" t="n">
-        <v>687.9851304291741</v>
+        <v>735.1683687008067</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.324795174208</v>
+        <v>665.0049314072869</v>
       </c>
       <c r="AD3" t="n">
-        <v>502823.3792042686</v>
+        <v>537307.8967617089</v>
       </c>
       <c r="AE3" t="n">
-        <v>687985.1304291741</v>
+        <v>735168.3687008067</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.510846333775967e-06</v>
+        <v>4.872493646292131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.383333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>622324.795174208</v>
+        <v>665004.9314072869</v>
       </c>
     </row>
     <row r="4">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>405.0483530046586</v>
+        <v>439.6181219081193</v>
       </c>
       <c r="AB4" t="n">
-        <v>554.2050260531453</v>
+        <v>601.5049089774272</v>
       </c>
       <c r="AC4" t="n">
-        <v>501.3124761982717</v>
+        <v>544.0981246820629</v>
       </c>
       <c r="AD4" t="n">
-        <v>405048.3530046586</v>
+        <v>439618.1219081193</v>
       </c>
       <c r="AE4" t="n">
-        <v>554205.0260531453</v>
+        <v>601504.9089774273</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.813200362815664e-06</v>
+        <v>5.459235282213448e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.697916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>501312.4761982717</v>
+        <v>544098.1246820629</v>
       </c>
     </row>
     <row r="5">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>364.0433717525009</v>
+        <v>398.4425484553694</v>
       </c>
       <c r="AB5" t="n">
-        <v>498.1002016918442</v>
+        <v>545.1666728412791</v>
       </c>
       <c r="AC5" t="n">
-        <v>450.5622175303974</v>
+        <v>493.1367307315377</v>
       </c>
       <c r="AD5" t="n">
-        <v>364043.3717525009</v>
+        <v>398442.5484553694</v>
       </c>
       <c r="AE5" t="n">
-        <v>498100.2016918442</v>
+        <v>545166.6728412792</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.969685883188881e-06</v>
+        <v>5.762907670881121e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.396875000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>450562.2175303975</v>
+        <v>493136.7307315377</v>
       </c>
     </row>
     <row r="6">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>335.4884979574303</v>
+        <v>358.5351000682886</v>
       </c>
       <c r="AB6" t="n">
-        <v>459.0301636133057</v>
+        <v>490.5635413657087</v>
       </c>
       <c r="AC6" t="n">
-        <v>415.2209690509318</v>
+        <v>443.7448454880193</v>
       </c>
       <c r="AD6" t="n">
-        <v>335488.4979574303</v>
+        <v>358535.1000682886</v>
       </c>
       <c r="AE6" t="n">
-        <v>459030.1636133057</v>
+        <v>490563.5413657086</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.067700904307602e-06</v>
+        <v>5.953113483645436e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.225</v>
       </c>
       <c r="AH6" t="n">
-        <v>415220.9690509318</v>
+        <v>443744.8454880193</v>
       </c>
     </row>
     <row r="7">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>326.7367672267345</v>
+        <v>349.7833693375927</v>
       </c>
       <c r="AB7" t="n">
-        <v>447.0556595284571</v>
+        <v>478.5890372808602</v>
       </c>
       <c r="AC7" t="n">
-        <v>404.3892948296192</v>
+        <v>432.9131712667067</v>
       </c>
       <c r="AD7" t="n">
-        <v>326736.7672267344</v>
+        <v>349783.3693375927</v>
       </c>
       <c r="AE7" t="n">
-        <v>447055.6595284571</v>
+        <v>478589.0372808602</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.093704889502365e-06</v>
+        <v>6.003576250297194e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.18125</v>
       </c>
       <c r="AH7" t="n">
-        <v>404389.2948296192</v>
+        <v>432913.1712667067</v>
       </c>
     </row>
     <row r="8">
@@ -25404,28 +25404,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>327.5909489145325</v>
+        <v>350.6375510253907</v>
       </c>
       <c r="AB8" t="n">
-        <v>448.2243885975389</v>
+        <v>479.757766349942</v>
       </c>
       <c r="AC8" t="n">
-        <v>405.4464820366695</v>
+        <v>433.9703584737568</v>
       </c>
       <c r="AD8" t="n">
-        <v>327590.9489145325</v>
+        <v>350637.5510253907</v>
       </c>
       <c r="AE8" t="n">
-        <v>448224.3885975389</v>
+        <v>479757.766349942</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.098782590753413e-06</v>
+        <v>6.013429926625642e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.172916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>405446.4820366695</v>
+        <v>433970.3584737568</v>
       </c>
     </row>
   </sheetData>
@@ -25701,28 +25701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1623.192897487562</v>
+        <v>1706.93003070729</v>
       </c>
       <c r="AB2" t="n">
-        <v>2220.924132559124</v>
+        <v>2335.496972451949</v>
       </c>
       <c r="AC2" t="n">
-        <v>2008.962250434278</v>
+        <v>2112.600419291722</v>
       </c>
       <c r="AD2" t="n">
-        <v>1623192.897487562</v>
+        <v>1706930.03070729</v>
       </c>
       <c r="AE2" t="n">
-        <v>2220924.132559124</v>
+        <v>2335496.972451949</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.289240455575669e-06</v>
+        <v>2.41912077246955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.98020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2008962.250434278</v>
+        <v>2112600.419291722</v>
       </c>
     </row>
     <row r="3">
@@ -25807,28 +25807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>641.0330133320194</v>
+        <v>688.8949952939457</v>
       </c>
       <c r="AB3" t="n">
-        <v>877.089649221489</v>
+        <v>942.5765244634169</v>
       </c>
       <c r="AC3" t="n">
-        <v>793.3814441028434</v>
+        <v>852.6183438830883</v>
       </c>
       <c r="AD3" t="n">
-        <v>641033.0133320194</v>
+        <v>688894.9952939458</v>
       </c>
       <c r="AE3" t="n">
-        <v>877089.649221489</v>
+        <v>942576.5244634169</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.216841178989284e-06</v>
+        <v>4.159663561724238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.966666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>793381.4441028434</v>
+        <v>852618.3438830883</v>
       </c>
     </row>
     <row r="4">
@@ -25913,28 +25913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>514.645352028119</v>
+        <v>550.5205927944718</v>
       </c>
       <c r="AB4" t="n">
-        <v>704.1604751953979</v>
+        <v>753.246562315843</v>
       </c>
       <c r="AC4" t="n">
-        <v>636.9563877381825</v>
+        <v>681.357767596608</v>
       </c>
       <c r="AD4" t="n">
-        <v>514645.352028119</v>
+        <v>550520.5927944718</v>
       </c>
       <c r="AE4" t="n">
-        <v>704160.4751953979</v>
+        <v>753246.562315843</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.551791632024987e-06</v>
+        <v>4.788161988982285e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.052083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>636956.3877381824</v>
+        <v>681357.767596608</v>
       </c>
     </row>
     <row r="5">
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>448.5566451701283</v>
+        <v>484.5171372825017</v>
       </c>
       <c r="AB5" t="n">
-        <v>613.7349908443232</v>
+        <v>662.9377226174174</v>
       </c>
       <c r="AC5" t="n">
-        <v>555.1609847006099</v>
+        <v>599.6678768097478</v>
       </c>
       <c r="AD5" t="n">
-        <v>448556.6451701283</v>
+        <v>484517.1372825017</v>
       </c>
       <c r="AE5" t="n">
-        <v>613734.9908443232</v>
+        <v>662937.7226174175</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.730461528398613e-06</v>
+        <v>5.123416794137639e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.65625</v>
       </c>
       <c r="AH5" t="n">
-        <v>555160.9847006099</v>
+        <v>599667.8768097478</v>
       </c>
     </row>
     <row r="6">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>416.4416525428771</v>
+        <v>452.2315524546583</v>
       </c>
       <c r="AB6" t="n">
-        <v>569.7938411182372</v>
+        <v>618.7631611164844</v>
       </c>
       <c r="AC6" t="n">
-        <v>515.4135166325906</v>
+        <v>559.7092734590774</v>
       </c>
       <c r="AD6" t="n">
-        <v>416441.6525428771</v>
+        <v>452231.5524546583</v>
       </c>
       <c r="AE6" t="n">
-        <v>569793.8411182372</v>
+        <v>618763.1611164844</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.837515192449864e-06</v>
+        <v>5.324291457475536e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>515413.5166325906</v>
+        <v>559709.2734590773</v>
       </c>
     </row>
     <row r="7">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>392.1705571405216</v>
+        <v>427.960457052303</v>
       </c>
       <c r="AB7" t="n">
-        <v>536.5850576235762</v>
+        <v>585.5543776218234</v>
       </c>
       <c r="AC7" t="n">
-        <v>485.3741328258397</v>
+        <v>529.6698896523264</v>
       </c>
       <c r="AD7" t="n">
-        <v>392170.5571405216</v>
+        <v>427960.457052303</v>
       </c>
       <c r="AE7" t="n">
-        <v>536585.0576235761</v>
+        <v>585554.3776218233</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.915358923235054e-06</v>
+        <v>5.47035682901625e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.297916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>485374.1328258397</v>
+        <v>529669.8896523265</v>
       </c>
     </row>
     <row r="8">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>372.7767646421156</v>
+        <v>396.7505155589155</v>
       </c>
       <c r="AB8" t="n">
-        <v>510.0496151335167</v>
+        <v>542.851558785128</v>
       </c>
       <c r="AC8" t="n">
-        <v>461.371195724304</v>
+        <v>491.0425679116225</v>
       </c>
       <c r="AD8" t="n">
-        <v>372776.7646421156</v>
+        <v>396750.5155589156</v>
       </c>
       <c r="AE8" t="n">
-        <v>510049.6151335167</v>
+        <v>542851.5587851279</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.968589207714832e-06</v>
+        <v>5.570237721174568e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>461371.195724304</v>
+        <v>491042.5679116225</v>
       </c>
     </row>
     <row r="9">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>360.6957456539023</v>
+        <v>384.6694965707023</v>
       </c>
       <c r="AB9" t="n">
-        <v>493.5198319769012</v>
+        <v>526.3217756285123</v>
       </c>
       <c r="AC9" t="n">
-        <v>446.4189918724595</v>
+        <v>476.090364059778</v>
       </c>
       <c r="AD9" t="n">
-        <v>360695.7456539024</v>
+        <v>384669.4965707023</v>
       </c>
       <c r="AE9" t="n">
-        <v>493519.8319769012</v>
+        <v>526321.7756285124</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.002099080395695e-06</v>
+        <v>5.633115385875905e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.144791666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>446418.9918724595</v>
+        <v>476090.364059778</v>
       </c>
     </row>
     <row r="10">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>358.8223194873482</v>
+        <v>382.7960704041481</v>
       </c>
       <c r="AB10" t="n">
-        <v>490.9565276460926</v>
+        <v>523.7584712977037</v>
       </c>
       <c r="AC10" t="n">
-        <v>444.100325709363</v>
+        <v>473.7716978966814</v>
       </c>
       <c r="AD10" t="n">
-        <v>358822.3194873483</v>
+        <v>382796.0704041481</v>
       </c>
       <c r="AE10" t="n">
-        <v>490956.5276460926</v>
+        <v>523758.4712977037</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.004323186989557e-06</v>
+        <v>5.637288682205638e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>444100.325709363</v>
+        <v>473771.6978966814</v>
       </c>
     </row>
   </sheetData>
@@ -26846,28 +26846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.5261385576568</v>
+        <v>270.0815695560216</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.52076522056</v>
+        <v>369.537518624469</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.0261518382151</v>
+        <v>334.2693764961138</v>
       </c>
       <c r="AD2" t="n">
-        <v>233526.1385576568</v>
+        <v>270081.5695560217</v>
       </c>
       <c r="AE2" t="n">
-        <v>319520.76522056</v>
+        <v>369537.5186244691</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86851597542103e-06</v>
+        <v>7.173940764194045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.91875</v>
       </c>
       <c r="AH2" t="n">
-        <v>289026.1518382151</v>
+        <v>334269.3764961138</v>
       </c>
     </row>
   </sheetData>
@@ -27143,28 +27143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.633580628284</v>
+        <v>598.7187763250635</v>
       </c>
       <c r="AB2" t="n">
-        <v>760.2423778391681</v>
+        <v>819.1934433761852</v>
       </c>
       <c r="AC2" t="n">
-        <v>687.6859123050759</v>
+        <v>741.0107708855802</v>
       </c>
       <c r="AD2" t="n">
-        <v>555633.580628284</v>
+        <v>598718.7763250634</v>
       </c>
       <c r="AE2" t="n">
-        <v>760242.3778391681</v>
+        <v>819193.4433761853</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.269703151039813e-06</v>
+        <v>4.673962153777235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.494791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>687685.9123050759</v>
+        <v>741010.7708855802</v>
       </c>
     </row>
     <row r="3">
@@ -27249,28 +27249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.0372259929739</v>
+        <v>368.4790669160026</v>
       </c>
       <c r="AB3" t="n">
-        <v>459.7809575197085</v>
+        <v>504.1693155036067</v>
       </c>
       <c r="AC3" t="n">
-        <v>415.9001082406537</v>
+        <v>456.0521036380202</v>
       </c>
       <c r="AD3" t="n">
-        <v>336037.2259929739</v>
+        <v>368479.0669160027</v>
       </c>
       <c r="AE3" t="n">
-        <v>459780.9575197086</v>
+        <v>504169.3155036067</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.974014949761643e-06</v>
+        <v>6.124339790243255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.719791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>415900.1082406537</v>
+        <v>456052.1036380202</v>
       </c>
     </row>
     <row r="4">
@@ -27355,28 +27355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>288.7741101789654</v>
+        <v>321.0453589014019</v>
       </c>
       <c r="AB4" t="n">
-        <v>395.1134773614716</v>
+        <v>439.2684235705227</v>
       </c>
       <c r="AC4" t="n">
-        <v>357.4044016273403</v>
+        <v>397.3452617420558</v>
       </c>
       <c r="AD4" t="n">
-        <v>288774.1101789654</v>
+        <v>321045.3589014019</v>
       </c>
       <c r="AE4" t="n">
-        <v>395113.4773614716</v>
+        <v>439268.4235705226</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.19642920198959e-06</v>
+        <v>6.582353780706209e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.321875</v>
       </c>
       <c r="AH4" t="n">
-        <v>357404.4016273404</v>
+        <v>397345.2617420558</v>
       </c>
     </row>
     <row r="5">
@@ -27461,28 +27461,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>288.2314928878261</v>
+        <v>320.5027416102627</v>
       </c>
       <c r="AB5" t="n">
-        <v>394.3710444451494</v>
+        <v>438.5259906542005</v>
       </c>
       <c r="AC5" t="n">
-        <v>356.7328254665408</v>
+        <v>396.6736855812563</v>
       </c>
       <c r="AD5" t="n">
-        <v>288231.4928878261</v>
+        <v>320502.7416102627</v>
       </c>
       <c r="AE5" t="n">
-        <v>394371.0444451494</v>
+        <v>438525.9906542005</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.200674995350769e-06</v>
+        <v>6.591097072741478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.314583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>356732.8254665408</v>
+        <v>396673.6855812563</v>
       </c>
     </row>
   </sheetData>
@@ -27758,28 +27758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>802.3116792131526</v>
+        <v>858.5328750024489</v>
       </c>
       <c r="AB2" t="n">
-        <v>1097.758234992634</v>
+        <v>1174.682555375657</v>
       </c>
       <c r="AC2" t="n">
-        <v>992.9897297582961</v>
+        <v>1062.572500967924</v>
       </c>
       <c r="AD2" t="n">
-        <v>802311.6792131526</v>
+        <v>858532.8750024489</v>
       </c>
       <c r="AE2" t="n">
-        <v>1097758.234992635</v>
+        <v>1174682.555375657</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.883841812991092e-06</v>
+        <v>3.732237469010107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.69375</v>
       </c>
       <c r="AH2" t="n">
-        <v>992989.7297582962</v>
+        <v>1062572.500967924</v>
       </c>
     </row>
     <row r="3">
@@ -27864,28 +27864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.2985564514515</v>
+        <v>472.9972270917517</v>
       </c>
       <c r="AB3" t="n">
-        <v>601.0676654213815</v>
+        <v>647.1756732718642</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.7026110373311</v>
+        <v>585.4101353315589</v>
       </c>
       <c r="AD3" t="n">
-        <v>439298.5564514515</v>
+        <v>472997.2270917516</v>
       </c>
       <c r="AE3" t="n">
-        <v>601067.6654213816</v>
+        <v>647175.6732718642</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.680174543987576e-06</v>
+        <v>5.309919223352971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.110416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>543702.6110373311</v>
+        <v>585410.1353315589</v>
       </c>
     </row>
     <row r="4">
@@ -27970,28 +27970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>357.9902339521053</v>
+        <v>391.774155938426</v>
       </c>
       <c r="AB4" t="n">
-        <v>489.8180315077502</v>
+        <v>536.042684010882</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.0704860445747</v>
+        <v>484.8835225895148</v>
       </c>
       <c r="AD4" t="n">
-        <v>357990.2339521053</v>
+        <v>391774.155938426</v>
       </c>
       <c r="AE4" t="n">
-        <v>489818.0315077502</v>
+        <v>536042.684010882</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.958930305499278e-06</v>
+        <v>5.862185709127876e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.534375000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>443070.4860445747</v>
+        <v>484883.5225895148</v>
       </c>
     </row>
     <row r="5">
@@ -28076,28 +28076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.387408656903</v>
+        <v>355.0007384426315</v>
       </c>
       <c r="AB5" t="n">
-        <v>439.7364311361695</v>
+        <v>485.7276718644544</v>
       </c>
       <c r="AC5" t="n">
-        <v>397.76860332249</v>
+        <v>439.3705045847792</v>
       </c>
       <c r="AD5" t="n">
-        <v>321387.408656903</v>
+        <v>355000.7384426315</v>
       </c>
       <c r="AE5" t="n">
-        <v>439736.4311361695</v>
+        <v>485727.6718644543</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.101845695918982e-06</v>
+        <v>6.145327409956636e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.280208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>397768.6033224901</v>
+        <v>439370.5045847791</v>
       </c>
     </row>
     <row r="6">
@@ -28182,28 +28182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>311.1481238194633</v>
+        <v>333.6708279855615</v>
       </c>
       <c r="AB6" t="n">
-        <v>425.7265898962186</v>
+        <v>456.5431473678549</v>
       </c>
       <c r="AC6" t="n">
-        <v>385.0958416675444</v>
+        <v>412.9713101453978</v>
       </c>
       <c r="AD6" t="n">
-        <v>311148.1238194633</v>
+        <v>333670.8279855615</v>
       </c>
       <c r="AE6" t="n">
-        <v>425726.5898962186</v>
+        <v>456543.147367855</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.140050800288607e-06</v>
+        <v>6.221018755722739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.215625</v>
       </c>
       <c r="AH6" t="n">
-        <v>385095.8416675444</v>
+        <v>412971.3101453978</v>
       </c>
     </row>
     <row r="7">
@@ -28288,28 +28288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>312.7666203601676</v>
+        <v>335.2893245262657</v>
       </c>
       <c r="AB7" t="n">
-        <v>427.9410882662382</v>
+        <v>458.7576457378745</v>
       </c>
       <c r="AC7" t="n">
-        <v>387.0989914211974</v>
+        <v>414.9744598990507</v>
       </c>
       <c r="AD7" t="n">
-        <v>312766.6203601676</v>
+        <v>335289.3245262657</v>
       </c>
       <c r="AE7" t="n">
-        <v>427941.0882662382</v>
+        <v>458757.6457378745</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.139579132333426e-06</v>
+        <v>6.220084294663898e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.216666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>387098.9914211974</v>
+        <v>414974.4598990506</v>
       </c>
     </row>
   </sheetData>
